--- a/data_model_files/lists/list.xlsx
+++ b/data_model_files/lists/list.xlsx
@@ -5,110 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/docs/assets/data_model_templates/lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CA5934-B8AC-5242-B691-E9B30FCB8EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657DFCB3-D0D3-BC4C-94DE-351B719B5CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28860" windowHeight="20480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25560" yWindow="3180" windowWidth="44140" windowHeight="25060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="list 2" sheetId="2" r:id="rId2"/>
+    <sheet name="list 3" sheetId="3" r:id="rId3"/>
+    <sheet name="list 4" sheetId="4" r:id="rId4"/>
+    <sheet name="list 5" sheetId="5" r:id="rId5"/>
+    <sheet name="list 6" sheetId="6" r:id="rId6"/>
+    <sheet name="list 7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="82yCgUbI7vLFo9rfQQPQ62yKV3LHHqYyq7NbepgUHTM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="82yCgUbI7vLFo9rfQQPQ62yKV3LHHqYyq7NbepgUHTM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="85">
   <si>
     <t>ID (optional)</t>
   </si>
   <si>
-    <t>List 1</t>
-  </si>
-  <si>
-    <t>Liste 1</t>
-  </si>
-  <si>
-    <t>Node 1</t>
-  </si>
-  <si>
-    <t>Knoten 1</t>
-  </si>
-  <si>
-    <t>Node 1.1</t>
-  </si>
-  <si>
-    <t>Knoten 1.1</t>
-  </si>
-  <si>
-    <t>custom_name_1-1-1</t>
-  </si>
-  <si>
-    <t>Node 1.1.1</t>
-  </si>
-  <si>
-    <t>custom_name_1-1-2</t>
-  </si>
-  <si>
-    <t>Node 1.1.2</t>
-  </si>
-  <si>
-    <t>Node 2</t>
-  </si>
-  <si>
-    <t>Knoten 2</t>
-  </si>
-  <si>
-    <t>Node 2.1</t>
-  </si>
-  <si>
-    <t>Knoten 2.1</t>
-  </si>
-  <si>
-    <t>Node 2.2</t>
-  </si>
-  <si>
-    <t>Knoten 2.2</t>
-  </si>
-  <si>
-    <t>Node 3</t>
-  </si>
-  <si>
-    <t>Knoten 3</t>
-  </si>
-  <si>
-    <t>Node 3.1</t>
-  </si>
-  <si>
-    <t>Knoten 3.1</t>
-  </si>
-  <si>
-    <t>Node 3.1.1</t>
-  </si>
-  <si>
-    <t>Knoten 3.1.1</t>
-  </si>
-  <si>
-    <t>Node 3.1.2</t>
-  </si>
-  <si>
-    <t>Knoten 3.1.2</t>
-  </si>
-  <si>
-    <t>Node 3.2</t>
-  </si>
-  <si>
-    <t>Knoten 3.2</t>
-  </si>
-  <si>
     <t>en_list</t>
   </si>
   <si>
@@ -133,27 +60,6 @@
     <t>de_3</t>
   </si>
   <si>
-    <t>Node 4</t>
-  </si>
-  <si>
-    <t>Knoten 4</t>
-  </si>
-  <si>
-    <t>Knoten 1.1.2</t>
-  </si>
-  <si>
-    <t>Knoten 1.1.1</t>
-  </si>
-  <si>
-    <t>custom_name_3-1-2</t>
-  </si>
-  <si>
-    <t>Node 2.3</t>
-  </si>
-  <si>
-    <t>Knoten 2.3</t>
-  </si>
-  <si>
     <t>fr_list</t>
   </si>
   <si>
@@ -179,13 +85,214 @@
   </si>
   <si>
     <t>rm_2</t>
+  </si>
+  <si>
+    <t>Character Type</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>The White Rabbit</t>
+  </si>
+  <si>
+    <t>The Queen of Hearts</t>
+  </si>
+  <si>
+    <t>The King of Hearts</t>
+  </si>
+  <si>
+    <t>The Cheshire Cat</t>
+  </si>
+  <si>
+    <t>The Duchess</t>
+  </si>
+  <si>
+    <t>The Caterpillar</t>
+  </si>
+  <si>
+    <t>The Mad Hatter</t>
+  </si>
+  <si>
+    <t>The March Hare</t>
+  </si>
+  <si>
+    <t>The Dormouse</t>
+  </si>
+  <si>
+    <t>The Gryphon</t>
+  </si>
+  <si>
+    <t>The Mock Turtle</t>
+  </si>
+  <si>
+    <t>Alice's sister</t>
+  </si>
+  <si>
+    <t>The Knave of Hearts</t>
+  </si>
+  <si>
+    <t>The Mouse</t>
+  </si>
+  <si>
+    <t>The Dodo</t>
+  </si>
+  <si>
+    <t>The Lory</t>
+  </si>
+  <si>
+    <t>The Eaglet</t>
+  </si>
+  <si>
+    <t>The Duck</t>
+  </si>
+  <si>
+    <t>The Cook</t>
+  </si>
+  <si>
+    <t>The Pigeon</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>Seven</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>The Frog-Footman</t>
+  </si>
+  <si>
+    <t>Departement</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Repository Services</t>
+  </si>
+  <si>
+    <t>DARIAH-CH</t>
+  </si>
+  <si>
+    <t>Office Management</t>
+  </si>
+  <si>
+    <t>Education Grade</t>
+  </si>
+  <si>
+    <t>B.A.</t>
+  </si>
+  <si>
+    <t>M.A.</t>
+  </si>
+  <si>
+    <t>M.Sc.</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>CC BY</t>
+  </si>
+  <si>
+    <t>CC BY-SA</t>
+  </si>
+  <si>
+    <t>CC BY-NC</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA</t>
+  </si>
+  <si>
+    <t>CC BY-ND</t>
+  </si>
+  <si>
+    <t>CC BY-NC-ND</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Head of Repository Services</t>
+  </si>
+  <si>
+    <t>Head of Engineering</t>
+  </si>
+  <si>
+    <t>Operations Manager</t>
+  </si>
+  <si>
+    <t>National Coordination Officer</t>
+  </si>
+  <si>
+    <t>Interoperability Specialist</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Senior Softwar Engineer</t>
+  </si>
+  <si>
+    <t>Research Data Specialist</t>
+  </si>
+  <si>
+    <t>Senior Research Data Specialist</t>
+  </si>
+  <si>
+    <t>Scientific Programmer</t>
+  </si>
+  <si>
+    <t>Infrastructure Engineer</t>
+  </si>
+  <si>
+    <t>Product Manager</t>
+  </si>
+  <si>
+    <t>Dipl.-Ind.-Eng.</t>
+  </si>
+  <si>
+    <t>B.BI</t>
+  </si>
+  <si>
+    <t>B.Sc.</t>
+  </si>
+  <si>
+    <t>Specie</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Dog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,6 +334,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,17 +366,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,14 +595,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="7" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
     <col min="10" max="26" width="10.5" customWidth="1"/>
@@ -489,144 +616,98 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -634,205 +715,215 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D25" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1820,16 +1911,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783195D9-9670-BB46-AB57-45AFEA14AAC6}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="7" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1837,49 +1931,86 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="3" t="s">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="3" t="s">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1895,4 +2026,709 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3757166F-63AD-F141-A41B-B6C4D694415A}">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A0A7CB-C234-DB46-84F7-256074D25220}">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72069B2C-273D-A54E-838D-FB0E6FA98EF3}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{C9C9A9DD-F68E-694E-A335-4E11695DEB20}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9311618-01D9-614E-BBC9-BBDD01B07801}">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView zoomScale="285" zoomScaleNormal="285" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{2BEB71CA-4A35-FE4B-B84C-27657BEB0DBD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A28C32-8E1B-F34F-87D2-1F6DEEB58D93}">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView zoomScale="267" zoomScaleNormal="267" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{346DB24D-F2FF-EE44-B687-84D45EE2F8F8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_model_files/lists/list.xlsx
+++ b/data_model_files/lists/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657DFCB3-D0D3-BC4C-94DE-351B719B5CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F6DA01-2D53-EE42-8C7C-022E98281579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25560" yWindow="3180" windowWidth="44140" windowHeight="25060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8960" yWindow="3040" windowWidth="59000" windowHeight="25060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -39,52 +39,7 @@
     <t>en_list</t>
   </si>
   <si>
-    <t>de_list</t>
-  </si>
-  <si>
     <t>en_1</t>
-  </si>
-  <si>
-    <t>de_1</t>
-  </si>
-  <si>
-    <t>en_2</t>
-  </si>
-  <si>
-    <t>de_2</t>
-  </si>
-  <si>
-    <t>en_3</t>
-  </si>
-  <si>
-    <t>de_3</t>
-  </si>
-  <si>
-    <t>fr_list</t>
-  </si>
-  <si>
-    <t>it_list</t>
-  </si>
-  <si>
-    <t>rm_list</t>
-  </si>
-  <si>
-    <t>fr_1</t>
-  </si>
-  <si>
-    <t>it_1</t>
-  </si>
-  <si>
-    <t>rm_1</t>
-  </si>
-  <si>
-    <t>fr_2</t>
-  </si>
-  <si>
-    <t>it_2</t>
-  </si>
-  <si>
-    <t>rm_2</t>
   </si>
   <si>
     <t>Character Type</t>
@@ -292,18 +247,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,15 +316,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -593,337 +540,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="26" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="20" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4" t="s">
+    </row>
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4" t="s">
+    </row>
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4" t="s">
+    </row>
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4" t="s">
+    </row>
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4" t="s">
+    </row>
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4" t="s">
+    </row>
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4" t="s">
+    </row>
+    <row r="28" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1893,7 +1755,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -1911,106 +1773,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783195D9-9670-BB46-AB57-45AFEA14AAC6}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="7" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2030,135 +1852,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3757166F-63AD-F141-A41B-B6C4D694415A}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>80</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2178,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A0A7CB-C234-DB46-84F7-256074D25220}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2189,94 +1972,55 @@
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
@@ -2295,128 +2039,89 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72069B2C-273D-A54E-838D-FB0E6FA98EF3}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
@@ -2430,7 +2135,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{C9C9A9DD-F68E-694E-A335-4E11695DEB20}"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{C9C9A9DD-F68E-694E-A335-4E11695DEB20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2438,166 +2143,127 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9311618-01D9-614E-BBC9-BBDD01B07801}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="285" zoomScaleNormal="285" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>78</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2612,7 +2278,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{2BEB71CA-4A35-FE4B-B84C-27657BEB0DBD}"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{2BEB71CA-4A35-FE4B-B84C-27657BEB0DBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2620,100 +2286,61 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A28C32-8E1B-F34F-87D2-1F6DEEB58D93}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="267" zoomScaleNormal="267" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="G8" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
@@ -2727,7 +2354,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{346DB24D-F2FF-EE44-B687-84D45EE2F8F8}"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{346DB24D-F2FF-EE44-B687-84D45EE2F8F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_model_files/lists/list.xlsx
+++ b/data_model_files/lists/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F6DA01-2D53-EE42-8C7C-022E98281579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E921DB-E122-AE4C-B9B0-74636BA8B75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8960" yWindow="3040" windowWidth="59000" windowHeight="25060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data_model_files/lists/list.xlsx
+++ b/data_model_files/lists/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E921DB-E122-AE4C-B9B0-74636BA8B75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F2949D-C385-FA44-A0E9-80F020BD9780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="3040" windowWidth="59000" windowHeight="25060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7520" yWindow="500" windowWidth="59000" windowHeight="25060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="121">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -168,24 +168,6 @@
     <t>License</t>
   </si>
   <si>
-    <t>CC BY</t>
-  </si>
-  <si>
-    <t>CC BY-SA</t>
-  </si>
-  <si>
-    <t>CC BY-NC</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA</t>
-  </si>
-  <si>
-    <t>CC BY-ND</t>
-  </si>
-  <si>
-    <t>CC BY-NC-ND</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
@@ -241,17 +223,195 @@
   </si>
   <si>
     <t>Dog</t>
+  </si>
+  <si>
+    <t>fr_list</t>
+  </si>
+  <si>
+    <t>fr_1</t>
+  </si>
+  <si>
+    <t>Type de Personnage</t>
+  </si>
+  <si>
+    <t>Le Roi de Cœur</t>
+  </si>
+  <si>
+    <t>La Chenille</t>
+  </si>
+  <si>
+    <t>Le Chapelier fou</t>
+  </si>
+  <si>
+    <t>Le Gryphon</t>
+  </si>
+  <si>
+    <t>Le Dodo</t>
+  </si>
+  <si>
+    <t>Le Lory</t>
+  </si>
+  <si>
+    <t>Deux</t>
+  </si>
+  <si>
+    <t>Cinq</t>
+  </si>
+  <si>
+    <t>Sept</t>
+  </si>
+  <si>
+    <t>L'homme aux pieds de grenouille</t>
+  </si>
+  <si>
+    <t>Le lièvre de Mars</t>
+  </si>
+  <si>
+    <t>Le Lapin Blanc</t>
+  </si>
+  <si>
+    <t>La Reine de Cœur</t>
+  </si>
+  <si>
+    <t>Le Chat du Cheshire</t>
+  </si>
+  <si>
+    <t>La Duchesse</t>
+  </si>
+  <si>
+    <t>Le Loir</t>
+  </si>
+  <si>
+    <t>La Sœur d'Alice</t>
+  </si>
+  <si>
+    <t>Le Valet de Cœur</t>
+  </si>
+  <si>
+    <t>La Souris</t>
+  </si>
+  <si>
+    <t>Le Canard</t>
+  </si>
+  <si>
+    <t>L'Aiglon</t>
+  </si>
+  <si>
+    <t>Le Cuisinier</t>
+  </si>
+  <si>
+    <t>Le Pigeon</t>
+  </si>
+  <si>
+    <t>La Simili-Tortue</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Développement informatique</t>
+  </si>
+  <si>
+    <t>Services d'archivage</t>
+  </si>
+  <si>
+    <t>Département</t>
+  </si>
+  <si>
+    <t>Niveau d'études</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Non-binary</t>
+  </si>
+  <si>
+    <t>Féminin</t>
+  </si>
+  <si>
+    <t>Masculin</t>
+  </si>
+  <si>
+    <t>Non-binaire</t>
+  </si>
+  <si>
+    <t>Licence</t>
+  </si>
+  <si>
+    <t>CC BY 4.0</t>
+  </si>
+  <si>
+    <t>CC BY-SA 4.0</t>
+  </si>
+  <si>
+    <t>CC BY-NC 4.0</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0</t>
+  </si>
+  <si>
+    <t>CC BY-ND 4.0</t>
+  </si>
+  <si>
+    <t>CC BY-NC-ND 4.0</t>
+  </si>
+  <si>
+    <t>Fonction</t>
+  </si>
+  <si>
+    <t>Responsable des opérations</t>
+  </si>
+  <si>
+    <t>Spécialiste de l'interopérabilité</t>
+  </si>
+  <si>
+    <t>Spécialiste senior en données de recherche</t>
+  </si>
+  <si>
+    <t>Programmeur scientifique</t>
+  </si>
+  <si>
+    <t>Chargé.e de la coordination nationale</t>
+  </si>
+  <si>
+    <t>Ingénieur.e logiciel</t>
+  </si>
+  <si>
+    <t>Ingénieur.e logiciel senior</t>
+  </si>
+  <si>
+    <t>Ingénieur.e infrastructure</t>
+  </si>
+  <si>
+    <t>Spécialiste en données de recherche</t>
+  </si>
+  <si>
+    <t>Direction des services d'archivage</t>
+  </si>
+  <si>
+    <t>Direction du développement informatique</t>
+  </si>
+  <si>
+    <t>Responsable de produit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,14 +476,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -540,21 +701,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="21" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -562,230 +725,395 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1755,7 +2083,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -1773,21 +2101,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783195D9-9670-BB46-AB57-45AFEA14AAC6}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="7" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1795,44 +2125,78 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1852,19 +2216,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3757166F-63AD-F141-A41B-B6C4D694415A}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1872,76 +2237,133 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>65</v>
+      <c r="C10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1961,18 +2383,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A0A7CB-C234-DB46-84F7-256074D25220}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1980,47 +2404,82 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
@@ -2039,18 +2498,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72069B2C-273D-A54E-838D-FB0E6FA98EF3}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2058,70 +2517,118 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
@@ -2135,7 +2642,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{C9C9A9DD-F68E-694E-A335-4E11695DEB20}"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{C9C9A9DD-F68E-694E-A335-4E11695DEB20}"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{41F2F833-62DE-E642-92F4-3F765160BD24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2143,18 +2651,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9311618-01D9-614E-BBC9-BBDD01B07801}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2162,108 +2671,189 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="E8" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="E9" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="E11" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E12" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="E13" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>63</v>
+      <c r="E14" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2868,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{2BEB71CA-4A35-FE4B-B84C-27657BEB0DBD}"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{2BEB71CA-4A35-FE4B-B84C-27657BEB0DBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2307,23 +2897,23 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">

--- a/data_model_files/lists/list.xlsx
+++ b/data_model_files/lists/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F2949D-C385-FA44-A0E9-80F020BD9780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0E4C88-B93C-094F-A544-38A0EB1550FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="500" windowWidth="59000" windowHeight="25060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="76800" windowHeight="18660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list 1" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,6 @@
     <t>Software Engineer</t>
   </si>
   <si>
-    <t>Senior Softwar Engineer</t>
-  </si>
-  <si>
     <t>Research Data Specialist</t>
   </si>
   <si>
@@ -394,6 +391,9 @@
   </si>
   <si>
     <t>Responsable de produit</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer</t>
   </si>
 </sst>
 </file>
@@ -725,13 +725,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -739,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -761,13 +761,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -776,13 +776,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -791,13 +791,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -806,13 +806,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -820,13 +820,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -834,13 +834,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -848,13 +848,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -862,13 +862,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -876,13 +876,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -890,13 +890,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -905,13 +905,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -919,13 +919,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -933,13 +933,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -947,13 +947,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -961,13 +961,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -975,13 +975,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -989,13 +989,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1003,13 +1003,13 @@
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1017,13 +1017,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1031,13 +1031,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1045,13 +1045,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1059,13 +1059,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1073,13 +1073,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1087,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>28</v>
@@ -1101,13 +1101,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2125,13 +2125,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2139,7 +2139,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -2148,13 +2148,13 @@
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2162,13 +2162,13 @@
         <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2176,7 +2176,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>33</v>
@@ -2190,13 +2190,13 @@
         <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2237,13 +2237,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2251,7 +2251,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2259,7 +2259,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>36</v>
@@ -2273,13 +2273,13 @@
         <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2287,7 +2287,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>37</v>
@@ -2301,7 +2301,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>38</v>
@@ -2315,7 +2315,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>39</v>
@@ -2329,7 +2329,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>40</v>
@@ -2343,13 +2343,13 @@
         <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2357,13 +2357,13 @@
         <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2404,13 +2404,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2418,7 +2418,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2426,13 +2426,13 @@
         <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2440,13 +2440,13 @@
         <v>41</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2454,13 +2454,13 @@
         <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2531,7 +2531,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2539,13 +2539,13 @@
         <v>44</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2553,13 +2553,13 @@
         <v>44</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2567,13 +2567,13 @@
         <v>44</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2581,13 +2581,13 @@
         <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2595,13 +2595,13 @@
         <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2609,13 +2609,13 @@
         <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2654,7 +2654,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2671,13 +2671,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2693,13 +2693,13 @@
         <v>45</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2707,13 +2707,13 @@
         <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2721,13 +2721,13 @@
         <v>45</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2735,13 +2735,13 @@
         <v>45</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2749,13 +2749,13 @@
         <v>45</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2763,13 +2763,13 @@
         <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2777,13 +2777,13 @@
         <v>45</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>107</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2791,13 +2791,13 @@
         <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2805,13 +2805,13 @@
         <v>45</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2819,13 +2819,13 @@
         <v>45</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2833,13 +2833,13 @@
         <v>45</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2847,13 +2847,13 @@
         <v>45</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2897,23 +2897,23 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">

--- a/data_model_files/lists/list.xlsx
+++ b/data_model_files/lists/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0E4C88-B93C-094F-A544-38A0EB1550FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1338A4F5-9F64-224E-8D20-58665159C239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="76800" windowHeight="18660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35880" yWindow="2380" windowWidth="32620" windowHeight="27840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="136">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -394,17 +394,69 @@
   </si>
   <si>
     <t>Senior Software Engineer</t>
+  </si>
+  <si>
+    <t>Rubber Duck</t>
+  </si>
+  <si>
+    <t>Espèce</t>
+  </si>
+  <si>
+    <t>en_2</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Chien</t>
+  </si>
+  <si>
+    <t>Canard en plastique</t>
+  </si>
+  <si>
+    <t>fr_2</t>
+  </si>
+  <si>
+    <t>Mixed-breed</t>
+  </si>
+  <si>
+    <t>Chat européen</t>
+  </si>
+  <si>
+    <t>European Shorthair</t>
+  </si>
+  <si>
+    <t>chat de gouttière</t>
+  </si>
+  <si>
+    <t>Spanish greyhound</t>
+  </si>
+  <si>
+    <t>Lévrier espagnol</t>
+  </si>
+  <si>
+    <t>Yorkshire Terrier</t>
+  </si>
+  <si>
+    <t>Terrier du Yorkshire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,14 +528,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2083,7 +2136,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -2653,7 +2706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9311618-01D9-614E-BBC9-BBDD01B07801}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+    <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2876,15 +2929,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A28C32-8E1B-F34F-87D2-1F6DEEB58D93}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2892,45 +2951,165 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="E6" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
@@ -2944,7 +3123,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{346DB24D-F2FF-EE44-B687-84D45EE2F8F8}"/>
+    <hyperlink ref="D6" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{346DB24D-F2FF-EE44-B687-84D45EE2F8F8}"/>
+    <hyperlink ref="D7" r:id="rId2" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{CBFC6CDC-BB58-C540-85C6-0C38BA528C93}"/>
+    <hyperlink ref="D8" r:id="rId3" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{455537D2-4311-B241-886B-87988C9B4A68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_model_files/lists/list.xlsx
+++ b/data_model_files/lists/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1338A4F5-9F64-224E-8D20-58665159C239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CA7461-1E3B-AA42-8677-2D0546E7A6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35880" yWindow="2380" windowWidth="32620" windowHeight="27840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38900" yWindow="500" windowWidth="29100" windowHeight="27840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list 1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,19 @@
     <sheet name="list 5" sheetId="5" r:id="rId5"/>
     <sheet name="list 6" sheetId="6" r:id="rId6"/>
     <sheet name="list 7" sheetId="7" r:id="rId7"/>
+    <sheet name="list 8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="82yCgUbI7vLFo9rfQQPQ62yKV3LHHqYyq7NbepgUHTM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="82yCgUbI7vLFo9rfQQPQ62yKV3LHHqYyq7NbepgUHTM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="163">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -439,17 +440,105 @@
   </si>
   <si>
     <t>Terrier du Yorkshire</t>
+  </si>
+  <si>
+    <t>Fairytale Location</t>
+  </si>
+  <si>
+    <t>Lieu du conte</t>
+  </si>
+  <si>
+    <t>Alice's Garden</t>
+  </si>
+  <si>
+    <t>Rabbit Hole</t>
+  </si>
+  <si>
+    <t>Wonderland</t>
+  </si>
+  <si>
+    <t>Jardin d'Alice</t>
+  </si>
+  <si>
+    <t>Terrier du Lapin</t>
+  </si>
+  <si>
+    <t>Pays des Merveilles</t>
+  </si>
+  <si>
+    <t>Duchess' house</t>
+  </si>
+  <si>
+    <t>White Rabbit's house</t>
+  </si>
+  <si>
+    <t>Seacoast</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Angleterre</t>
+  </si>
+  <si>
+    <t>Palace of Hearts</t>
+  </si>
+  <si>
+    <t>Mad Hatters's Tea Room</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Pool of Tears</t>
+  </si>
+  <si>
+    <t>Garden</t>
+  </si>
+  <si>
+    <t>Mare de larmes</t>
+  </si>
+  <si>
+    <t>Maison de la duchesse</t>
+  </si>
+  <si>
+    <t>Maison du Lapin Blanc</t>
+  </si>
+  <si>
+    <t>Côte</t>
+  </si>
+  <si>
+    <t>Palais de cœur</t>
+  </si>
+  <si>
+    <t>Tea-room du chapelier fou</t>
+  </si>
+  <si>
+    <t>en_3</t>
+  </si>
+  <si>
+    <t>fr_3</t>
+  </si>
+  <si>
+    <t>Jardin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -528,14 +617,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -757,7 +847,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2136,7 +2226,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -2157,7 +2247,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2931,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A28C32-8E1B-F34F-87D2-1F6DEEB58D93}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3129,4 +3219,320 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7AB6DA-C5F0-0E4B-8BAD-4893B4F50EEC}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_model_files/lists/list.xlsx
+++ b/data_model_files/lists/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A799FB-F5D5-CF43-9F43-EC5684AA592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F0E099-EFE4-9A46-8038-5B992896F71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="500" windowWidth="44820" windowHeight="30640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31420" yWindow="1580" windowWidth="44820" windowHeight="30640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list 1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="130">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -382,17 +382,77 @@
   </si>
   <si>
     <t>Galgo Español</t>
+  </si>
+  <si>
+    <t>edu_1</t>
+  </si>
+  <si>
+    <t>edu_2</t>
+  </si>
+  <si>
+    <t>edu_3</t>
+  </si>
+  <si>
+    <t>edu_4</t>
+  </si>
+  <si>
+    <t>edu_5</t>
+  </si>
+  <si>
+    <t>edu_6</t>
+  </si>
+  <si>
+    <t>edu_7</t>
+  </si>
+  <si>
+    <t>edu_8</t>
+  </si>
+  <si>
+    <t>PD Dr.</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Deputy Director</t>
+  </si>
+  <si>
+    <t>Directeur.trice</t>
+  </si>
+  <si>
+    <t>Directeur.trice adjoint.e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,6 +505,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -465,13 +531,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -693,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783195D9-9670-BB46-AB57-45AFEA14AAC6}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+    <sheetView zoomScale="166" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -809,7 +878,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -845,6 +914,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -859,6 +931,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -873,6 +948,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -887,6 +965,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -901,6 +982,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -915,6 +999,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -924,11 +1011,14 @@
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
+      <c r="E8" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -943,6 +1033,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -957,6 +1050,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -968,6 +1062,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1241,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9311618-01D9-614E-BBC9-BBDD01B07801}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+      <selection activeCell="E25" sqref="E24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1285,11 +1380,11 @@
       <c r="C3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>65</v>
+      <c r="D3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1299,11 +1394,11 @@
       <c r="C4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>66</v>
+      <c r="D4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1313,11 +1408,11 @@
       <c r="C5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1327,11 +1422,11 @@
       <c r="C6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1342,10 +1437,10 @@
         <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1356,10 +1451,10 @@
         <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1369,11 +1464,11 @@
       <c r="C9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>62</v>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1384,10 +1479,10 @@
         <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1397,11 +1492,11 @@
       <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
+      <c r="D11" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1412,10 +1507,10 @@
         <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1426,10 +1521,10 @@
         <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1440,9 +1535,37 @@
         <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1458,7 +1581,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{2BEB71CA-4A35-FE4B-B84C-27657BEB0DBD}"/>
+    <hyperlink ref="D6" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{2BEB71CA-4A35-FE4B-B84C-27657BEB0DBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_model_files/lists/list.xlsx
+++ b/data_model_files/lists/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F0E099-EFE4-9A46-8038-5B992896F71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34E84C5-6E3A-E14C-9D1E-D67938A34B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31420" yWindow="1580" windowWidth="44820" windowHeight="30640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31420" yWindow="1360" windowWidth="44820" windowHeight="30640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list 1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="132">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -276,12 +276,6 @@
     <t>Lévrier espagnol</t>
   </si>
   <si>
-    <t>Yorkshire Terrier</t>
-  </si>
-  <si>
-    <t>Terrier du Yorkshire</t>
-  </si>
-  <si>
     <t>Fairytale Location</t>
   </si>
   <si>
@@ -421,13 +415,25 @@
   </si>
   <si>
     <t>Directeur.trice adjoint.e</t>
+  </si>
+  <si>
+    <t>Yorkshire Terrier-Maltese Mix</t>
+  </si>
+  <si>
+    <t>Terrier du Yorkshire-Maltese Mix</t>
+  </si>
+  <si>
+    <t>Croisé</t>
+  </si>
+  <si>
+    <t>Mixed-breed dog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -511,6 +517,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -533,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -544,6 +557,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -915,7 +929,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -932,7 +946,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -949,7 +963,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -966,7 +980,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -983,7 +997,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -1000,7 +1014,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -1012,12 +1026,12 @@
         <v>13</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -1034,7 +1048,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -1338,7 +1352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9311618-01D9-614E-BBC9-BBDD01B07801}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+    <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
       <selection activeCell="E25" sqref="E24:E25"/>
     </sheetView>
   </sheetViews>
@@ -1381,10 +1395,10 @@
         <v>55</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1395,10 +1409,10 @@
         <v>55</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1589,18 +1603,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A28C32-8E1B-F34F-87D2-1F6DEEB58D93}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1661,7 +1675,7 @@
       <c r="E4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -1681,7 +1695,7 @@
       <c r="E5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -1716,7 +1730,7 @@
         <v>73</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>80</v>
@@ -1736,10 +1750,10 @@
         <v>73</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1756,10 +1770,10 @@
         <v>73</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1776,10 +1790,10 @@
         <v>73</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1795,11 +1809,11 @@
       <c r="E11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>82</v>
+      <c r="F11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1809,27 +1823,46 @@
       <c r="C12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
@@ -1849,6 +1882,7 @@
     <hyperlink ref="D8" r:id="rId4" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{9B91A009-5BBA-8C44-AE8D-62E786E8AC3B}"/>
     <hyperlink ref="D9" r:id="rId5" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{E3C0416A-D37E-5F43-8C2D-6BDAE9BE10A4}"/>
     <hyperlink ref="D10" r:id="rId6" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{CF270389-91E7-5941-B51C-2C2B5DA0D2FE}"/>
+    <hyperlink ref="D12" r:id="rId7" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{DD3688EE-D754-8049-BE33-2149C86C0C8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1898,262 +1932,262 @@
         <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="I5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/data_model_files/lists/list.xlsx
+++ b/data_model_files/lists/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34E84C5-6E3A-E14C-9D1E-D67938A34B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C586306A-5E26-B240-933C-FE97897D4FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31420" yWindow="1360" windowWidth="44820" windowHeight="30640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="134">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t>Mixed-breed dog</t>
+  </si>
+  <si>
+    <t>Bengal Cat</t>
+  </si>
+  <si>
+    <t>Bengal</t>
   </si>
 </sst>
 </file>
@@ -1603,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A28C32-8E1B-F34F-87D2-1F6DEEB58D93}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1676,10 +1682,10 @@
         <v>72</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>77</v>
+        <v>132</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1696,10 +1702,10 @@
         <v>72</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1710,10 +1716,16 @@
         <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1729,12 +1741,6 @@
       <c r="E7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -1750,10 +1756,10 @@
         <v>73</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1770,10 +1776,10 @@
         <v>73</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1790,10 +1796,10 @@
         <v>73</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1809,11 +1815,11 @@
       <c r="E11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>129</v>
+      <c r="F11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1830,10 +1836,10 @@
         <v>73</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1843,26 +1849,46 @@
       <c r="C13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
@@ -1876,13 +1902,13 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{346DB24D-F2FF-EE44-B687-84D45EE2F8F8}"/>
-    <hyperlink ref="D7" r:id="rId2" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{CBFC6CDC-BB58-C540-85C6-0C38BA528C93}"/>
-    <hyperlink ref="D11" r:id="rId3" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{455537D2-4311-B241-886B-87988C9B4A68}"/>
-    <hyperlink ref="D8" r:id="rId4" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{9B91A009-5BBA-8C44-AE8D-62E786E8AC3B}"/>
-    <hyperlink ref="D9" r:id="rId5" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{E3C0416A-D37E-5F43-8C2D-6BDAE9BE10A4}"/>
-    <hyperlink ref="D10" r:id="rId6" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{CF270389-91E7-5941-B51C-2C2B5DA0D2FE}"/>
-    <hyperlink ref="D12" r:id="rId7" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{DD3688EE-D754-8049-BE33-2149C86C0C8D}"/>
+    <hyperlink ref="D7" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{346DB24D-F2FF-EE44-B687-84D45EE2F8F8}"/>
+    <hyperlink ref="D8" r:id="rId2" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{CBFC6CDC-BB58-C540-85C6-0C38BA528C93}"/>
+    <hyperlink ref="D12" r:id="rId3" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{455537D2-4311-B241-886B-87988C9B4A68}"/>
+    <hyperlink ref="D9" r:id="rId4" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{9B91A009-5BBA-8C44-AE8D-62E786E8AC3B}"/>
+    <hyperlink ref="D10" r:id="rId5" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{E3C0416A-D37E-5F43-8C2D-6BDAE9BE10A4}"/>
+    <hyperlink ref="D11" r:id="rId6" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{CF270389-91E7-5941-B51C-2C2B5DA0D2FE}"/>
+    <hyperlink ref="D13" r:id="rId7" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{DD3688EE-D754-8049-BE33-2149C86C0C8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_model_files/lists/list.xlsx
+++ b/data_model_files/lists/list.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08E3C89-BFC8-1B43-804F-7E96E07B3CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035A6E84-B76B-474A-9FD2-8CB2699FE1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="28660" windowHeight="30640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29720" yWindow="500" windowWidth="28660" windowHeight="30640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="License" sheetId="5" r:id="rId1"/>
-    <sheet name="list 7" sheetId="8" r:id="rId2"/>
+    <sheet name="License List" sheetId="5" r:id="rId1"/>
+    <sheet name="Wonderland Location List" sheetId="8" r:id="rId2"/>
+    <sheet name="Adventure Type List" sheetId="9" r:id="rId3"/>
+    <sheet name="Role" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -73,12 +75,6 @@
     <t>fr_2</t>
   </si>
   <si>
-    <t>Fairytale Location</t>
-  </si>
-  <si>
-    <t>Lieu du conte</t>
-  </si>
-  <si>
     <t>Alice's Garden</t>
   </si>
   <si>
@@ -152,17 +148,98 @@
   </si>
   <si>
     <t>Jardin</t>
+  </si>
+  <si>
+    <t>Wonderland Location</t>
+  </si>
+  <si>
+    <t>Lieu du Pays des Merveilles</t>
+  </si>
+  <si>
+    <t>R_01</t>
+  </si>
+  <si>
+    <t>R_02</t>
+  </si>
+  <si>
+    <t>Main Character</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Secondary Character</t>
+  </si>
+  <si>
+    <t>Rôle</t>
+  </si>
+  <si>
+    <t>Personnage principal</t>
+  </si>
+  <si>
+    <t>Personnage secondaire</t>
+  </si>
+  <si>
+    <t>AD_01</t>
+  </si>
+  <si>
+    <t>Genre d'aventure</t>
+  </si>
+  <si>
+    <t>AD_02</t>
+  </si>
+  <si>
+    <t>AD_03</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Découverte</t>
+  </si>
+  <si>
+    <t>Accident</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Adventure type</t>
+  </si>
+  <si>
+    <t>CC 0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,6 +285,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,13 +311,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -453,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72069B2C-273D-A54E-838D-FB0E6FA98EF3}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,11 +582,11 @@
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
+      <c r="D3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -511,10 +597,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -524,11 +610,11 @@
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -539,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -553,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -567,15 +653,25 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
@@ -584,6 +680,10 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
@@ -597,8 +697,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{C9C9A9DD-F68E-694E-A335-4E11695DEB20}"/>
-    <hyperlink ref="E4" r:id="rId2" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{41F2F833-62DE-E642-92F4-3F765160BD24}"/>
+    <hyperlink ref="D5" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{C9C9A9DD-F68E-694E-A335-4E11695DEB20}"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://creativecommons.org/licenses/by-sa/4.0/" xr:uid="{41F2F833-62DE-E642-92F4-3F765160BD24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -609,7 +709,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,262 +748,262 @@
         <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
+      <c r="C2" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="I5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
+      <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="5" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="5" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="5" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -919,4 +1019,225 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7662D575-4440-C947-82E4-1E4A075623C5}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94787C4E-736A-8C40-BE29-495EE0DE96C5}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_model_files/lists/list.xlsx
+++ b/data_model_files/lists/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035A6E84-B76B-474A-9FD2-8CB2699FE1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE55F203-676C-984C-8270-356F324B44F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29720" yWindow="500" windowWidth="28660" windowHeight="30640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8080" yWindow="500" windowWidth="28660" windowHeight="30640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License List" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>CC 0.0</t>
+  </si>
+  <si>
+    <t>PDM 1.0</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,8 +677,18 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>

--- a/data_model_files/lists/list.xlsx
+++ b/data_model_files/lists/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE55F203-676C-984C-8270-356F324B44F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605D7831-0C55-2B4A-9A31-C0295CC6EDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8080" yWindow="500" windowWidth="28660" windowHeight="30640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="License List" sheetId="5" r:id="rId1"/>
     <sheet name="Wonderland Location List" sheetId="8" r:id="rId2"/>
     <sheet name="Adventure Type List" sheetId="9" r:id="rId3"/>
-    <sheet name="Role" sheetId="10" r:id="rId4"/>
+    <sheet name="Role List" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -545,7 +545,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
